--- a/论文中的图表.xlsx
+++ b/论文中的图表.xlsx
@@ -16,21 +16,77 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
   <si>
-    <t>2016年</t>
+    <t>ccm的谱效率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021年</t>
+    <t>p=0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IP视频流量</t>
+    <t>p=0.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无线移动设备流量</t>
+    <t>p=0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p=0.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P=0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P=0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p=0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p=0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wireless traffic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>video traffic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -163,7 +219,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2016年</c:v>
+                  <c:v>2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -175,10 +231,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>无线移动设备流量</c:v>
+                  <c:v>wireless traffic</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>IP视频流量</c:v>
+                  <c:v>video traffic</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -208,7 +264,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2021年</c:v>
+                  <c:v>2021</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -220,10 +276,10 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>无线移动设备流量</c:v>
+                  <c:v>wireless traffic</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>IP视频流量</c:v>
+                  <c:v>video traffic</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -254,12 +310,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="195200128"/>
-        <c:axId val="308273920"/>
+        <c:axId val="292297728"/>
+        <c:axId val="292299520"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="195200128"/>
+        <c:axId val="292297728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -268,7 +324,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="308273920"/>
+        <c:crossAx val="292299520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -276,7 +332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="308273920"/>
+        <c:axId val="292299520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -287,7 +343,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195200128"/>
+        <c:crossAx val="292297728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -314,14 +370,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1628775</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -631,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:V86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -645,15 +701,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2">
+        <v>2016</v>
       </c>
       <c r="B2" s="1">
         <v>0.51</v>
@@ -663,14 +719,2569 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>1</v>
+      <c r="A3">
+        <v>2021</v>
       </c>
       <c r="B3" s="1">
         <v>0.63</v>
       </c>
       <c r="C3" s="1">
         <v>0.82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C29">
+        <v>0.38</v>
+      </c>
+      <c r="D29">
+        <v>0.54</v>
+      </c>
+      <c r="E29">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>0.38</v>
+      </c>
+      <c r="C30">
+        <v>0.48</v>
+      </c>
+      <c r="D30">
+        <v>0.72</v>
+      </c>
+      <c r="E30">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>0.45</v>
+      </c>
+      <c r="C31">
+        <v>0.61</v>
+      </c>
+      <c r="D31">
+        <v>0.9</v>
+      </c>
+      <c r="E31">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C32">
+        <v>0.76</v>
+      </c>
+      <c r="D32">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E32">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>0.67</v>
+      </c>
+      <c r="C33">
+        <v>0.95</v>
+      </c>
+      <c r="D33">
+        <v>1.36</v>
+      </c>
+      <c r="E33">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>0.86</v>
+      </c>
+      <c r="C34">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D34">
+        <v>1.61</v>
+      </c>
+      <c r="E34">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>1.05</v>
+      </c>
+      <c r="C35">
+        <v>1.34</v>
+      </c>
+      <c r="D35">
+        <v>1.83</v>
+      </c>
+      <c r="E35">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>1.25</v>
+      </c>
+      <c r="C36">
+        <v>1.57</v>
+      </c>
+      <c r="D36">
+        <v>2.16</v>
+      </c>
+      <c r="E36">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>1.4</v>
+      </c>
+      <c r="C37">
+        <v>1.74</v>
+      </c>
+      <c r="D37">
+        <v>2.37</v>
+      </c>
+      <c r="E37">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>14</v>
+      </c>
+      <c r="B38">
+        <v>1.56</v>
+      </c>
+      <c r="C38">
+        <v>1.85</v>
+      </c>
+      <c r="D38">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E38">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>1.69</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>2.73</v>
+      </c>
+      <c r="E39">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>16</v>
+      </c>
+      <c r="B40">
+        <v>1.77</v>
+      </c>
+      <c r="C40">
+        <v>2.13</v>
+      </c>
+      <c r="D40">
+        <v>2.89</v>
+      </c>
+      <c r="E40">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>17</v>
+      </c>
+      <c r="B41">
+        <v>1.84</v>
+      </c>
+      <c r="C41">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D41">
+        <v>3.01</v>
+      </c>
+      <c r="E41">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>18</v>
+      </c>
+      <c r="B42">
+        <v>1.99</v>
+      </c>
+      <c r="C42">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="D42">
+        <v>3.13</v>
+      </c>
+      <c r="E42">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>19</v>
+      </c>
+      <c r="B43">
+        <v>2.14</v>
+      </c>
+      <c r="C43">
+        <v>2.65</v>
+      </c>
+      <c r="D43">
+        <v>3.2</v>
+      </c>
+      <c r="E43">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <v>2.25</v>
+      </c>
+      <c r="C44">
+        <v>2.79</v>
+      </c>
+      <c r="D44">
+        <v>3.27</v>
+      </c>
+      <c r="E44">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>21</v>
+      </c>
+      <c r="B45">
+        <v>2.37</v>
+      </c>
+      <c r="C45">
+        <v>2.91</v>
+      </c>
+      <c r="D45">
+        <v>3.3</v>
+      </c>
+      <c r="E45">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="C46">
+        <v>3.03</v>
+      </c>
+      <c r="D46">
+        <v>3.32</v>
+      </c>
+      <c r="E46">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>23</v>
+      </c>
+      <c r="B47">
+        <v>2.54</v>
+      </c>
+      <c r="C47">
+        <v>3.13</v>
+      </c>
+      <c r="D47">
+        <v>3.3</v>
+      </c>
+      <c r="E47">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>24</v>
+      </c>
+      <c r="B48">
+        <v>2.65</v>
+      </c>
+      <c r="C48">
+        <v>3.18</v>
+      </c>
+      <c r="D48">
+        <v>3.31</v>
+      </c>
+      <c r="E48">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>25</v>
+      </c>
+      <c r="B49">
+        <v>2.71</v>
+      </c>
+      <c r="C49">
+        <v>3.23</v>
+      </c>
+      <c r="D49">
+        <v>3.32</v>
+      </c>
+      <c r="E49">
+        <v>3.79</v>
+      </c>
+      <c r="H49">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="D52">
+        <v>7</v>
+      </c>
+      <c r="E52">
+        <v>8</v>
+      </c>
+      <c r="F52">
+        <v>9</v>
+      </c>
+      <c r="G52">
+        <v>10</v>
+      </c>
+      <c r="H52">
+        <v>11</v>
+      </c>
+      <c r="I52">
+        <v>12</v>
+      </c>
+      <c r="J52">
+        <v>13</v>
+      </c>
+      <c r="K52">
+        <v>14</v>
+      </c>
+      <c r="L52">
+        <v>15</v>
+      </c>
+      <c r="M52">
+        <v>16</v>
+      </c>
+      <c r="N52">
+        <v>17</v>
+      </c>
+      <c r="O52">
+        <v>18</v>
+      </c>
+      <c r="P52">
+        <v>19</v>
+      </c>
+      <c r="Q52">
+        <v>20</v>
+      </c>
+      <c r="R52">
+        <v>21</v>
+      </c>
+      <c r="S52">
+        <v>22</v>
+      </c>
+      <c r="T52">
+        <v>23</v>
+      </c>
+      <c r="U52">
+        <v>24</v>
+      </c>
+      <c r="V52">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53">
+        <v>0.64960000000000007</v>
+      </c>
+      <c r="C53">
+        <v>0.88159999999999994</v>
+      </c>
+      <c r="D53">
+        <v>1.044</v>
+      </c>
+      <c r="E53">
+        <v>1.2992000000000001</v>
+      </c>
+      <c r="F53">
+        <v>1.5544</v>
+      </c>
+      <c r="G53">
+        <v>1.9951999999999999</v>
+      </c>
+      <c r="H53">
+        <v>2.4359999999999999</v>
+      </c>
+      <c r="I53">
+        <v>2.6679999999999997</v>
+      </c>
+      <c r="J53">
+        <v>2.9</v>
+      </c>
+      <c r="K53">
+        <v>3.1320000000000001</v>
+      </c>
+      <c r="L53">
+        <v>3.3639999999999999</v>
+      </c>
+      <c r="M53">
+        <v>3.4103999999999997</v>
+      </c>
+      <c r="N53">
+        <v>3.4567999999999999</v>
+      </c>
+      <c r="O53">
+        <v>3.5031999999999996</v>
+      </c>
+      <c r="P53">
+        <v>3.5495999999999999</v>
+      </c>
+      <c r="Q53">
+        <v>3.5728</v>
+      </c>
+      <c r="R53">
+        <v>3.5959999999999996</v>
+      </c>
+      <c r="S53">
+        <v>3.6191999999999998</v>
+      </c>
+      <c r="T53">
+        <v>3.6423999999999999</v>
+      </c>
+      <c r="U53">
+        <v>3.6656</v>
+      </c>
+      <c r="V53">
+        <v>3.6888000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <v>0.64960000000000007</v>
+      </c>
+      <c r="C54">
+        <v>0.88159999999999994</v>
+      </c>
+      <c r="D54">
+        <v>1.044</v>
+      </c>
+      <c r="E54">
+        <v>1.2992000000000001</v>
+      </c>
+      <c r="F54">
+        <v>1.5544</v>
+      </c>
+      <c r="G54">
+        <v>1.9951999999999999</v>
+      </c>
+      <c r="H54">
+        <v>2.4359999999999999</v>
+      </c>
+      <c r="I54">
+        <v>2.7143999999999995</v>
+      </c>
+      <c r="J54">
+        <v>2.9695999999999998</v>
+      </c>
+      <c r="K54">
+        <v>3.2015999999999996</v>
+      </c>
+      <c r="L54">
+        <v>3.4567999999999999</v>
+      </c>
+      <c r="M54">
+        <v>3.5263999999999998</v>
+      </c>
+      <c r="N54">
+        <v>3.5728</v>
+      </c>
+      <c r="O54">
+        <v>3.6191999999999998</v>
+      </c>
+      <c r="P54">
+        <v>3.6656</v>
+      </c>
+      <c r="Q54">
+        <v>3.6888000000000001</v>
+      </c>
+      <c r="R54">
+        <v>3.7119999999999997</v>
+      </c>
+      <c r="S54">
+        <v>3.7351999999999999</v>
+      </c>
+      <c r="T54">
+        <v>3.7584</v>
+      </c>
+      <c r="U54">
+        <v>3.7815999999999996</v>
+      </c>
+      <c r="V54">
+        <v>3.8047999999999993</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>0.64960000000000007</v>
+      </c>
+      <c r="C55">
+        <v>0.88159999999999994</v>
+      </c>
+      <c r="D55">
+        <v>1.044</v>
+      </c>
+      <c r="E55">
+        <v>1.2992000000000001</v>
+      </c>
+      <c r="F55">
+        <v>1.5544</v>
+      </c>
+      <c r="G55">
+        <v>1.9951999999999999</v>
+      </c>
+      <c r="H55">
+        <v>2.4359999999999999</v>
+      </c>
+      <c r="I55">
+        <v>2.7607999999999997</v>
+      </c>
+      <c r="J55">
+        <v>3.0392000000000001</v>
+      </c>
+      <c r="K55">
+        <v>3.2711999999999994</v>
+      </c>
+      <c r="L55">
+        <v>3.5495999999999999</v>
+      </c>
+      <c r="M55">
+        <v>3.6423999999999999</v>
+      </c>
+      <c r="N55">
+        <v>3.6888000000000001</v>
+      </c>
+      <c r="O55">
+        <v>3.7351999999999999</v>
+      </c>
+      <c r="P55">
+        <v>3.7815999999999996</v>
+      </c>
+      <c r="Q55">
+        <v>3.8047999999999993</v>
+      </c>
+      <c r="R55">
+        <v>3.8279999999999994</v>
+      </c>
+      <c r="S55">
+        <v>3.8511999999999995</v>
+      </c>
+      <c r="T55">
+        <v>3.8743999999999996</v>
+      </c>
+      <c r="U55">
+        <v>3.8975999999999997</v>
+      </c>
+      <c r="V55">
+        <v>3.9207999999999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56">
+        <v>0.64960000000000007</v>
+      </c>
+      <c r="C56">
+        <v>0.88159999999999994</v>
+      </c>
+      <c r="D56">
+        <v>1.044</v>
+      </c>
+      <c r="E56">
+        <v>1.2992000000000001</v>
+      </c>
+      <c r="F56">
+        <v>1.5544</v>
+      </c>
+      <c r="G56">
+        <v>1.9951999999999999</v>
+      </c>
+      <c r="H56">
+        <v>2.4359999999999999</v>
+      </c>
+      <c r="I56">
+        <v>2.8767999999999998</v>
+      </c>
+      <c r="J56">
+        <v>3.1320000000000001</v>
+      </c>
+      <c r="K56">
+        <v>3.3639999999999999</v>
+      </c>
+      <c r="L56">
+        <v>3.6656</v>
+      </c>
+      <c r="M56">
+        <v>3.7815999999999996</v>
+      </c>
+      <c r="N56">
+        <v>3.8975999999999997</v>
+      </c>
+      <c r="O56">
+        <v>4.0135999999999994</v>
+      </c>
+      <c r="P56">
+        <v>4.1295999999999999</v>
+      </c>
+      <c r="Q56">
+        <v>4.3151999999999999</v>
+      </c>
+      <c r="R56">
+        <v>4.3615999999999993</v>
+      </c>
+      <c r="S56">
+        <v>4.4079999999999995</v>
+      </c>
+      <c r="T56">
+        <v>4.4543999999999997</v>
+      </c>
+      <c r="U56">
+        <v>4.4775999999999998</v>
+      </c>
+      <c r="V56">
+        <v>4.5007999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57">
+        <v>0.64960000000000007</v>
+      </c>
+      <c r="C57">
+        <v>0.88159999999999994</v>
+      </c>
+      <c r="D57">
+        <v>1.044</v>
+      </c>
+      <c r="E57">
+        <v>1.2992000000000001</v>
+      </c>
+      <c r="F57">
+        <v>1.5544</v>
+      </c>
+      <c r="G57">
+        <v>1.9951999999999999</v>
+      </c>
+      <c r="H57">
+        <v>2.4359999999999999</v>
+      </c>
+      <c r="I57">
+        <v>2.9</v>
+      </c>
+      <c r="J57">
+        <v>3.2479999999999998</v>
+      </c>
+      <c r="K57">
+        <v>3.6191999999999998</v>
+      </c>
+      <c r="L57">
+        <v>3.9207999999999994</v>
+      </c>
+      <c r="M57">
+        <v>4.1295999999999999</v>
+      </c>
+      <c r="N57">
+        <v>4.2223999999999995</v>
+      </c>
+      <c r="O57">
+        <v>4.5471999999999992</v>
+      </c>
+      <c r="P57">
+        <v>4.8719999999999999</v>
+      </c>
+      <c r="Q57">
+        <v>4.9879999999999995</v>
+      </c>
+      <c r="R57">
+        <v>5.1040000000000001</v>
+      </c>
+      <c r="S57">
+        <v>5.22</v>
+      </c>
+      <c r="T57">
+        <v>5.3359999999999994</v>
+      </c>
+      <c r="U57">
+        <v>5.452</v>
+      </c>
+      <c r="V57">
+        <v>5.5679999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>0.64960000000000007</v>
+      </c>
+      <c r="C58">
+        <v>0.88159999999999994</v>
+      </c>
+      <c r="D58">
+        <v>1.044</v>
+      </c>
+      <c r="E58">
+        <v>1.2992000000000001</v>
+      </c>
+      <c r="F58">
+        <v>1.5544</v>
+      </c>
+      <c r="G58">
+        <v>1.9951999999999999</v>
+      </c>
+      <c r="H58">
+        <v>2.4359999999999999</v>
+      </c>
+      <c r="I58">
+        <v>2.9</v>
+      </c>
+      <c r="J58">
+        <v>3.2479999999999998</v>
+      </c>
+      <c r="K58">
+        <v>3.6191999999999998</v>
+      </c>
+      <c r="L58">
+        <v>3.9207999999999994</v>
+      </c>
+      <c r="M58">
+        <v>4.1063999999999998</v>
+      </c>
+      <c r="N58">
+        <v>4.2687999999999997</v>
+      </c>
+      <c r="O58">
+        <v>4.6167999999999996</v>
+      </c>
+      <c r="P58">
+        <v>4.9648000000000003</v>
+      </c>
+      <c r="Q58">
+        <v>5.22</v>
+      </c>
+      <c r="R58">
+        <v>5.4984000000000002</v>
+      </c>
+      <c r="S58">
+        <v>5.6840000000000002</v>
+      </c>
+      <c r="T58">
+        <v>5.8927999999999994</v>
+      </c>
+      <c r="U58">
+        <v>6.1479999999999997</v>
+      </c>
+      <c r="V58">
+        <v>6.2871999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <v>0.64960000000000007</v>
+      </c>
+      <c r="C59">
+        <v>0.88159999999999994</v>
+      </c>
+      <c r="D59">
+        <v>1.044</v>
+      </c>
+      <c r="E59">
+        <v>1.2992000000000001</v>
+      </c>
+      <c r="F59">
+        <v>1.5544</v>
+      </c>
+      <c r="G59">
+        <v>1.9951999999999999</v>
+      </c>
+      <c r="H59">
+        <v>2.4359999999999999</v>
+      </c>
+      <c r="I59">
+        <v>2.8767999999999998</v>
+      </c>
+      <c r="J59">
+        <v>3.1320000000000001</v>
+      </c>
+      <c r="K59">
+        <v>3.3639999999999999</v>
+      </c>
+      <c r="L59">
+        <v>3.6656</v>
+      </c>
+      <c r="M59">
+        <v>3.7815999999999996</v>
+      </c>
+      <c r="N59">
+        <v>3.8975999999999997</v>
+      </c>
+      <c r="O59">
+        <v>4.0367999999999995</v>
+      </c>
+      <c r="P59">
+        <v>4.1760000000000002</v>
+      </c>
+      <c r="Q59">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="R59">
+        <v>4.8255999999999997</v>
+      </c>
+      <c r="S59">
+        <v>4.9879999999999995</v>
+      </c>
+      <c r="T59">
+        <v>5.1504000000000003</v>
+      </c>
+      <c r="U59">
+        <v>5.2664</v>
+      </c>
+      <c r="V59">
+        <v>5.3823999999999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61">
+        <v>7</v>
+      </c>
+      <c r="E61">
+        <v>8</v>
+      </c>
+      <c r="F61">
+        <v>9</v>
+      </c>
+      <c r="G61">
+        <v>10</v>
+      </c>
+      <c r="H61">
+        <v>11</v>
+      </c>
+      <c r="I61">
+        <v>12</v>
+      </c>
+      <c r="J61">
+        <v>13</v>
+      </c>
+      <c r="K61">
+        <v>14</v>
+      </c>
+      <c r="L61">
+        <v>15</v>
+      </c>
+      <c r="M61">
+        <v>16</v>
+      </c>
+      <c r="N61">
+        <v>17</v>
+      </c>
+      <c r="O61">
+        <v>18</v>
+      </c>
+      <c r="P61">
+        <v>19</v>
+      </c>
+      <c r="Q61">
+        <v>20</v>
+      </c>
+      <c r="R61">
+        <v>21</v>
+      </c>
+      <c r="S61">
+        <v>22</v>
+      </c>
+      <c r="T61">
+        <v>23</v>
+      </c>
+      <c r="U61">
+        <v>24</v>
+      </c>
+      <c r="V61">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62">
+        <v>0.88159999999999994</v>
+      </c>
+      <c r="C62">
+        <v>1.1135999999999999</v>
+      </c>
+      <c r="D62">
+        <v>1.4151999999999998</v>
+      </c>
+      <c r="E62">
+        <v>1.7631999999999999</v>
+      </c>
+      <c r="F62">
+        <v>2.2039999999999997</v>
+      </c>
+      <c r="G62">
+        <v>2.6215999999999995</v>
+      </c>
+      <c r="H62">
+        <v>3.1088</v>
+      </c>
+      <c r="I62">
+        <v>3.6423999999999999</v>
+      </c>
+      <c r="J62">
+        <v>3.8743999999999996</v>
+      </c>
+      <c r="K62">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="L62">
+        <v>4.1992000000000003</v>
+      </c>
+      <c r="M62">
+        <v>4.234</v>
+      </c>
+      <c r="N62">
+        <v>4.2687999999999997</v>
+      </c>
+      <c r="O62">
+        <v>4.3035999999999994</v>
+      </c>
+      <c r="P62">
+        <v>4.3384</v>
+      </c>
+      <c r="Q62">
+        <v>4.3731999999999998</v>
+      </c>
+      <c r="R62">
+        <v>4.4079999999999995</v>
+      </c>
+      <c r="S62">
+        <v>4.4428000000000001</v>
+      </c>
+      <c r="T62">
+        <v>4.4775999999999998</v>
+      </c>
+      <c r="U62">
+        <v>4.5123999999999995</v>
+      </c>
+      <c r="V62">
+        <v>4.5471999999999992</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63">
+        <v>0.88159999999999994</v>
+      </c>
+      <c r="C63">
+        <v>1.1135999999999999</v>
+      </c>
+      <c r="D63">
+        <v>1.4151999999999998</v>
+      </c>
+      <c r="E63">
+        <v>1.7631999999999999</v>
+      </c>
+      <c r="F63">
+        <v>2.2039999999999997</v>
+      </c>
+      <c r="G63">
+        <v>2.6215999999999995</v>
+      </c>
+      <c r="H63">
+        <v>3.1088</v>
+      </c>
+      <c r="I63">
+        <v>3.6423999999999999</v>
+      </c>
+      <c r="J63">
+        <v>3.8511999999999995</v>
+      </c>
+      <c r="K63">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="L63">
+        <v>4.2687999999999997</v>
+      </c>
+      <c r="M63">
+        <v>4.3337599999999998</v>
+      </c>
+      <c r="N63">
+        <v>4.4033599999999993</v>
+      </c>
+      <c r="O63">
+        <v>4.4729599999999996</v>
+      </c>
+      <c r="P63">
+        <v>4.5425599999999999</v>
+      </c>
+      <c r="Q63">
+        <v>4.6052</v>
+      </c>
+      <c r="R63">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="S63">
+        <v>4.6748000000000003</v>
+      </c>
+      <c r="T63">
+        <v>4.7095999999999991</v>
+      </c>
+      <c r="U63">
+        <v>4.7443999999999997</v>
+      </c>
+      <c r="V63">
+        <v>4.7791999999999994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64">
+        <v>0.88159999999999994</v>
+      </c>
+      <c r="C64">
+        <v>1.1135999999999999</v>
+      </c>
+      <c r="D64">
+        <v>1.4151999999999998</v>
+      </c>
+      <c r="E64">
+        <v>1.7631999999999999</v>
+      </c>
+      <c r="F64">
+        <v>2.2039999999999997</v>
+      </c>
+      <c r="G64">
+        <v>2.6215999999999995</v>
+      </c>
+      <c r="H64">
+        <v>3.1088</v>
+      </c>
+      <c r="I64">
+        <v>3.6423999999999999</v>
+      </c>
+      <c r="J64">
+        <v>3.9439999999999995</v>
+      </c>
+      <c r="K64">
+        <v>4.1760000000000002</v>
+      </c>
+      <c r="L64">
+        <v>4.4079999999999995</v>
+      </c>
+      <c r="M64">
+        <v>4.4543999999999997</v>
+      </c>
+      <c r="N64">
+        <v>4.5007999999999999</v>
+      </c>
+      <c r="O64">
+        <v>4.5471999999999992</v>
+      </c>
+      <c r="P64">
+        <v>4.5935999999999995</v>
+      </c>
+      <c r="Q64">
+        <v>4.8604000000000003</v>
+      </c>
+      <c r="R64">
+        <v>4.8951999999999991</v>
+      </c>
+      <c r="S64">
+        <v>4.93</v>
+      </c>
+      <c r="T64">
+        <v>4.9648000000000003</v>
+      </c>
+      <c r="U64">
+        <v>4.9995999999999992</v>
+      </c>
+      <c r="V64">
+        <v>5.0343999999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65">
+        <v>0.88159999999999994</v>
+      </c>
+      <c r="C65">
+        <v>1.1135999999999999</v>
+      </c>
+      <c r="D65">
+        <v>1.4151999999999998</v>
+      </c>
+      <c r="E65">
+        <v>1.7631999999999999</v>
+      </c>
+      <c r="F65">
+        <v>2.2039999999999997</v>
+      </c>
+      <c r="G65">
+        <v>2.6215999999999995</v>
+      </c>
+      <c r="H65">
+        <v>3.1088</v>
+      </c>
+      <c r="I65">
+        <v>3.6423999999999999</v>
+      </c>
+      <c r="J65">
+        <v>4.0367999999999995</v>
+      </c>
+      <c r="K65">
+        <v>4.2919999999999998</v>
+      </c>
+      <c r="L65">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="M65">
+        <v>4.8719999999999999</v>
+      </c>
+      <c r="N65">
+        <v>5.1040000000000001</v>
+      </c>
+      <c r="O65">
+        <v>5.3359999999999994</v>
+      </c>
+      <c r="P65">
+        <v>5.5679999999999996</v>
+      </c>
+      <c r="Q65">
+        <v>5.6840000000000002</v>
+      </c>
+      <c r="R65">
+        <v>5.7535999999999996</v>
+      </c>
+      <c r="S65">
+        <v>5.823199999999999</v>
+      </c>
+      <c r="T65">
+        <v>5.8927999999999994</v>
+      </c>
+      <c r="U65">
+        <v>5.9623999999999988</v>
+      </c>
+      <c r="V65">
+        <v>6.008799999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66">
+        <v>0.88159999999999994</v>
+      </c>
+      <c r="C66">
+        <v>1.1135999999999999</v>
+      </c>
+      <c r="D66">
+        <v>1.4151999999999998</v>
+      </c>
+      <c r="E66">
+        <v>1.7631999999999999</v>
+      </c>
+      <c r="F66">
+        <v>2.2039999999999997</v>
+      </c>
+      <c r="G66">
+        <v>2.6215999999999995</v>
+      </c>
+      <c r="H66">
+        <v>3.1088</v>
+      </c>
+      <c r="I66">
+        <v>3.6423999999999999</v>
+      </c>
+      <c r="J66">
+        <v>4.0367999999999995</v>
+      </c>
+      <c r="K66">
+        <v>4.2919999999999998</v>
+      </c>
+      <c r="L66">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="M66">
+        <v>4.9415999999999993</v>
+      </c>
+      <c r="N66">
+        <v>5.3359999999999994</v>
+      </c>
+      <c r="O66">
+        <v>5.7304000000000004</v>
+      </c>
+      <c r="P66">
+        <v>6.1479999999999997</v>
+      </c>
+      <c r="Q66">
+        <v>6.4727999999999994</v>
+      </c>
+      <c r="R66">
+        <v>6.7511999999999999</v>
+      </c>
+      <c r="S66">
+        <v>7.0295999999999994</v>
+      </c>
+      <c r="T66">
+        <v>7.2615999999999996</v>
+      </c>
+      <c r="U66">
+        <v>7.3776000000000002</v>
+      </c>
+      <c r="V66">
+        <v>7.4935999999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <v>0.88159999999999994</v>
+      </c>
+      <c r="C67">
+        <v>1.1135999999999999</v>
+      </c>
+      <c r="D67">
+        <v>1.4151999999999998</v>
+      </c>
+      <c r="E67">
+        <v>1.7631999999999999</v>
+      </c>
+      <c r="F67">
+        <v>2.2039999999999997</v>
+      </c>
+      <c r="G67">
+        <v>2.6215999999999995</v>
+      </c>
+      <c r="H67">
+        <v>3.1088</v>
+      </c>
+      <c r="I67">
+        <v>3.6423999999999999</v>
+      </c>
+      <c r="J67">
+        <v>3.9439999999999995</v>
+      </c>
+      <c r="K67">
+        <v>4.1760000000000002</v>
+      </c>
+      <c r="L67">
+        <v>4.4079999999999995</v>
+      </c>
+      <c r="M67">
+        <v>4.6863999999999999</v>
+      </c>
+      <c r="N67">
+        <v>4.9648000000000003</v>
+      </c>
+      <c r="O67">
+        <v>5.243199999999999</v>
+      </c>
+      <c r="P67">
+        <v>5.5215999999999994</v>
+      </c>
+      <c r="Q67">
+        <v>5.823199999999999</v>
+      </c>
+      <c r="R67">
+        <v>6.1479999999999997</v>
+      </c>
+      <c r="S67">
+        <v>6.4495999999999993</v>
+      </c>
+      <c r="T67">
+        <v>6.7279999999999998</v>
+      </c>
+      <c r="U67">
+        <v>7.0759999999999987</v>
+      </c>
+      <c r="V67">
+        <v>7.2151999999999994</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68">
+        <v>0.88159999999999994</v>
+      </c>
+      <c r="C68">
+        <v>1.1135999999999999</v>
+      </c>
+      <c r="D68">
+        <v>1.4151999999999998</v>
+      </c>
+      <c r="E68">
+        <v>1.7631999999999999</v>
+      </c>
+      <c r="F68">
+        <v>2.2039999999999997</v>
+      </c>
+      <c r="G68">
+        <v>2.5287999999999999</v>
+      </c>
+      <c r="H68">
+        <v>2.8535999999999997</v>
+      </c>
+      <c r="I68">
+        <v>3.2943999999999996</v>
+      </c>
+      <c r="J68">
+        <v>3.6191999999999998</v>
+      </c>
+      <c r="K68">
+        <v>3.8047999999999993</v>
+      </c>
+      <c r="L68">
+        <v>3.9207999999999994</v>
+      </c>
+      <c r="M68">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="N68">
+        <v>4.1760000000000002</v>
+      </c>
+      <c r="O68">
+        <v>4.3847999999999994</v>
+      </c>
+      <c r="P68">
+        <v>4.6167999999999996</v>
+      </c>
+      <c r="Q68">
+        <v>4.9648000000000003</v>
+      </c>
+      <c r="R68">
+        <v>5.1968000000000005</v>
+      </c>
+      <c r="S68">
+        <v>5.4751999999999992</v>
+      </c>
+      <c r="T68">
+        <v>5.6607999999999992</v>
+      </c>
+      <c r="U68">
+        <v>5.823199999999999</v>
+      </c>
+      <c r="V68">
+        <v>5.8927999999999994</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
+      </c>
+      <c r="D70">
+        <v>7</v>
+      </c>
+      <c r="E70">
+        <v>8</v>
+      </c>
+      <c r="F70">
+        <v>9</v>
+      </c>
+      <c r="G70">
+        <v>10</v>
+      </c>
+      <c r="H70">
+        <v>11</v>
+      </c>
+      <c r="I70">
+        <v>12</v>
+      </c>
+      <c r="J70">
+        <v>13</v>
+      </c>
+      <c r="K70">
+        <v>14</v>
+      </c>
+      <c r="L70">
+        <v>15</v>
+      </c>
+      <c r="M70">
+        <v>16</v>
+      </c>
+      <c r="N70">
+        <v>17</v>
+      </c>
+      <c r="O70">
+        <v>18</v>
+      </c>
+      <c r="P70">
+        <v>19</v>
+      </c>
+      <c r="Q70">
+        <v>20</v>
+      </c>
+      <c r="R70">
+        <v>21</v>
+      </c>
+      <c r="S70">
+        <v>22</v>
+      </c>
+      <c r="T70">
+        <v>23</v>
+      </c>
+      <c r="U70">
+        <v>24</v>
+      </c>
+      <c r="V70">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71">
+        <v>1.2527999999999999</v>
+      </c>
+      <c r="C71">
+        <v>1.6703999999999999</v>
+      </c>
+      <c r="D71">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="E71">
+        <v>2.5752000000000002</v>
+      </c>
+      <c r="F71">
+        <v>3.1552000000000002</v>
+      </c>
+      <c r="G71">
+        <v>3.7351999999999999</v>
+      </c>
+      <c r="H71">
+        <v>4.2455999999999996</v>
+      </c>
+      <c r="I71">
+        <v>5.0111999999999997</v>
+      </c>
+      <c r="J71">
+        <v>5.4984000000000002</v>
+      </c>
+      <c r="K71">
+        <v>5.5215999999999994</v>
+      </c>
+      <c r="L71">
+        <v>5.5447999999999995</v>
+      </c>
+      <c r="M71">
+        <v>5.6375999999999999</v>
+      </c>
+      <c r="N71">
+        <v>5.7071999999999994</v>
+      </c>
+      <c r="O71">
+        <v>5.7767999999999997</v>
+      </c>
+      <c r="P71">
+        <v>5.8464</v>
+      </c>
+      <c r="Q71">
+        <v>5.9159999999999995</v>
+      </c>
+      <c r="R71">
+        <v>5.9391999999999996</v>
+      </c>
+      <c r="S71">
+        <v>5.9391999999999996</v>
+      </c>
+      <c r="T71">
+        <v>5.9391999999999996</v>
+      </c>
+      <c r="U71">
+        <v>5.9391999999999996</v>
+      </c>
+      <c r="V71">
+        <v>5.9391999999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72">
+        <v>1.2527999999999999</v>
+      </c>
+      <c r="C72">
+        <v>1.6703999999999999</v>
+      </c>
+      <c r="D72">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="E72">
+        <v>2.5752000000000002</v>
+      </c>
+      <c r="F72">
+        <v>3.1552000000000002</v>
+      </c>
+      <c r="G72">
+        <v>3.7351999999999999</v>
+      </c>
+      <c r="H72">
+        <v>4.2455999999999996</v>
+      </c>
+      <c r="I72">
+        <v>5.0111999999999997</v>
+      </c>
+      <c r="J72">
+        <v>5.4984000000000002</v>
+      </c>
+      <c r="K72">
+        <v>5.7071999999999994</v>
+      </c>
+      <c r="L72">
+        <v>5.8927999999999994</v>
+      </c>
+      <c r="M72">
+        <v>6.032</v>
+      </c>
+      <c r="N72">
+        <v>6.1711999999999998</v>
+      </c>
+      <c r="O72">
+        <v>6.3104000000000005</v>
+      </c>
+      <c r="P72">
+        <v>6.4263999999999992</v>
+      </c>
+      <c r="Q72">
+        <v>6.5191999999999997</v>
+      </c>
+      <c r="R72">
+        <v>6.5191999999999997</v>
+      </c>
+      <c r="S72">
+        <v>6.5191999999999997</v>
+      </c>
+      <c r="T72">
+        <v>6.5191999999999997</v>
+      </c>
+      <c r="U72">
+        <v>6.5191999999999997</v>
+      </c>
+      <c r="V72">
+        <v>6.5191999999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73">
+        <v>1.2527999999999999</v>
+      </c>
+      <c r="C73">
+        <v>1.6703999999999999</v>
+      </c>
+      <c r="D73">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="E73">
+        <v>2.5752000000000002</v>
+      </c>
+      <c r="F73">
+        <v>3.1552000000000002</v>
+      </c>
+      <c r="G73">
+        <v>3.7351999999999999</v>
+      </c>
+      <c r="H73">
+        <v>4.2455999999999996</v>
+      </c>
+      <c r="I73">
+        <v>5.0111999999999997</v>
+      </c>
+      <c r="J73">
+        <v>5.4984000000000002</v>
+      </c>
+      <c r="K73">
+        <v>5.7535999999999996</v>
+      </c>
+      <c r="L73">
+        <v>6.0784000000000002</v>
+      </c>
+      <c r="M73">
+        <v>6.3104000000000005</v>
+      </c>
+      <c r="N73">
+        <v>6.4959999999999996</v>
+      </c>
+      <c r="O73">
+        <v>6.6120000000000001</v>
+      </c>
+      <c r="P73">
+        <v>6.7743999999999991</v>
+      </c>
+      <c r="Q73">
+        <v>6.7976000000000001</v>
+      </c>
+      <c r="R73">
+        <v>6.8207999999999993</v>
+      </c>
+      <c r="S73">
+        <v>6.8440000000000003</v>
+      </c>
+      <c r="T73">
+        <v>6.8671999999999995</v>
+      </c>
+      <c r="U73">
+        <v>6.8903999999999996</v>
+      </c>
+      <c r="V73">
+        <v>6.8903999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74">
+        <v>1.2527999999999999</v>
+      </c>
+      <c r="C74">
+        <v>1.6703999999999999</v>
+      </c>
+      <c r="D74">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="E74">
+        <v>2.5752000000000002</v>
+      </c>
+      <c r="F74">
+        <v>3.1552000000000002</v>
+      </c>
+      <c r="G74">
+        <v>3.7351999999999999</v>
+      </c>
+      <c r="H74">
+        <v>4.2455999999999996</v>
+      </c>
+      <c r="I74">
+        <v>5.0111999999999997</v>
+      </c>
+      <c r="J74">
+        <v>5.4984000000000002</v>
+      </c>
+      <c r="K74">
+        <v>5.9159999999999995</v>
+      </c>
+      <c r="L74">
+        <v>6.3335999999999997</v>
+      </c>
+      <c r="M74">
+        <v>6.7047999999999996</v>
+      </c>
+      <c r="N74">
+        <v>6.9831999999999992</v>
+      </c>
+      <c r="O74">
+        <v>7.2615999999999996</v>
+      </c>
+      <c r="P74">
+        <v>7.4239999999999995</v>
+      </c>
+      <c r="Q74">
+        <v>7.5863999999999994</v>
+      </c>
+      <c r="R74">
+        <v>7.6559999999999988</v>
+      </c>
+      <c r="S74">
+        <v>7.702399999999999</v>
+      </c>
+      <c r="T74">
+        <v>7.6559999999999988</v>
+      </c>
+      <c r="U74">
+        <v>7.6791999999999998</v>
+      </c>
+      <c r="V74">
+        <v>7.702399999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75">
+        <v>1.2527999999999999</v>
+      </c>
+      <c r="C75">
+        <v>1.6703999999999999</v>
+      </c>
+      <c r="D75">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="E75">
+        <v>2.4359999999999999</v>
+      </c>
+      <c r="F75">
+        <v>2.8767999999999998</v>
+      </c>
+      <c r="G75">
+        <v>3.4567999999999999</v>
+      </c>
+      <c r="H75">
+        <v>3.9439999999999995</v>
+      </c>
+      <c r="I75">
+        <v>4.3384</v>
+      </c>
+      <c r="J75">
+        <v>4.6863999999999999</v>
+      </c>
+      <c r="K75">
+        <v>5.0807999999999991</v>
+      </c>
+      <c r="L75">
+        <v>5.4751999999999992</v>
+      </c>
+      <c r="M75">
+        <v>6.0784000000000002</v>
+      </c>
+      <c r="N75">
+        <v>6.7047999999999996</v>
+      </c>
+      <c r="O75">
+        <v>7.2151999999999994</v>
+      </c>
+      <c r="P75">
+        <v>7.5863999999999994</v>
+      </c>
+      <c r="Q75">
+        <v>8.0039999999999996</v>
+      </c>
+      <c r="R75">
+        <v>8.3287999999999993</v>
+      </c>
+      <c r="S75">
+        <v>8.6768000000000001</v>
+      </c>
+      <c r="T75">
+        <v>8.9087999999999994</v>
+      </c>
+      <c r="U75">
+        <v>9.1407999999999987</v>
+      </c>
+      <c r="V75">
+        <v>9.3031999999999986</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <v>1.2527999999999999</v>
+      </c>
+      <c r="C76">
+        <v>1.6703999999999999</v>
+      </c>
+      <c r="D76">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="E76">
+        <v>2.4359999999999999</v>
+      </c>
+      <c r="F76">
+        <v>2.8767999999999998</v>
+      </c>
+      <c r="G76">
+        <v>3.4567999999999999</v>
+      </c>
+      <c r="H76">
+        <v>3.9207999999999994</v>
+      </c>
+      <c r="I76">
+        <v>4.1528</v>
+      </c>
+      <c r="J76">
+        <v>4.4543999999999997</v>
+      </c>
+      <c r="K76">
+        <v>4.8255999999999997</v>
+      </c>
+      <c r="L76">
+        <v>5.0807999999999991</v>
+      </c>
+      <c r="M76">
+        <v>5.4055999999999997</v>
+      </c>
+      <c r="N76">
+        <v>5.6375999999999999</v>
+      </c>
+      <c r="O76">
+        <v>5.823199999999999</v>
+      </c>
+      <c r="P76">
+        <v>6.1711999999999998</v>
+      </c>
+      <c r="Q76">
+        <v>6.5423999999999989</v>
+      </c>
+      <c r="R76">
+        <v>7.0991999999999997</v>
+      </c>
+      <c r="S76">
+        <v>7.4007999999999994</v>
+      </c>
+      <c r="T76">
+        <v>7.5631999999999993</v>
+      </c>
+      <c r="U76">
+        <v>7.6791999999999998</v>
+      </c>
+      <c r="V76">
+        <v>7.702399999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77">
+        <v>1.2527999999999999</v>
+      </c>
+      <c r="C77">
+        <v>1.6703999999999999</v>
+      </c>
+      <c r="D77">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="E77">
+        <v>2.4359999999999999</v>
+      </c>
+      <c r="F77">
+        <v>2.8767999999999998</v>
+      </c>
+      <c r="G77">
+        <v>3.2015999999999996</v>
+      </c>
+      <c r="H77">
+        <v>3.5959999999999996</v>
+      </c>
+      <c r="I77">
+        <v>3.9207999999999994</v>
+      </c>
+      <c r="J77">
+        <v>4.0367999999999995</v>
+      </c>
+      <c r="K77">
+        <v>4.1528</v>
+      </c>
+      <c r="L77">
+        <v>4.2223999999999995</v>
+      </c>
+      <c r="M77">
+        <v>4.4311999999999996</v>
+      </c>
+      <c r="N77">
+        <v>4.6863999999999999</v>
+      </c>
+      <c r="O77">
+        <v>4.9184000000000001</v>
+      </c>
+      <c r="P77">
+        <v>5.3127999999999993</v>
+      </c>
+      <c r="Q77">
+        <v>5.5911999999999997</v>
+      </c>
+      <c r="R77">
+        <v>5.9159999999999995</v>
+      </c>
+      <c r="S77">
+        <v>6.1711999999999998</v>
+      </c>
+      <c r="T77">
+        <v>6.3567999999999998</v>
+      </c>
+      <c r="U77">
+        <v>6.4959999999999996</v>
+      </c>
+      <c r="V77">
+        <v>6.5191999999999997</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>15</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79">
+        <v>7</v>
+      </c>
+      <c r="E79">
+        <v>8</v>
+      </c>
+      <c r="F79">
+        <v>9</v>
+      </c>
+      <c r="G79">
+        <v>10</v>
+      </c>
+      <c r="H79">
+        <v>11</v>
+      </c>
+      <c r="I79">
+        <v>12</v>
+      </c>
+      <c r="J79">
+        <v>13</v>
+      </c>
+      <c r="K79">
+        <v>14</v>
+      </c>
+      <c r="L79">
+        <v>15</v>
+      </c>
+      <c r="M79">
+        <v>16</v>
+      </c>
+      <c r="N79">
+        <v>17</v>
+      </c>
+      <c r="O79">
+        <v>18</v>
+      </c>
+      <c r="P79">
+        <v>19</v>
+      </c>
+      <c r="Q79">
+        <v>20</v>
+      </c>
+      <c r="R79">
+        <v>21</v>
+      </c>
+      <c r="S79">
+        <v>22</v>
+      </c>
+      <c r="T79">
+        <v>23</v>
+      </c>
+      <c r="U79">
+        <v>24</v>
+      </c>
+      <c r="V79">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80">
+        <v>1.7631999999999999</v>
+      </c>
+      <c r="C80">
+        <v>2.2735999999999996</v>
+      </c>
+      <c r="D80">
+        <v>2.9</v>
+      </c>
+      <c r="E80">
+        <v>3.5728</v>
+      </c>
+      <c r="F80">
+        <v>4.1760000000000002</v>
+      </c>
+      <c r="G80">
+        <v>4.8719999999999999</v>
+      </c>
+      <c r="H80">
+        <v>5.5679999999999996</v>
+      </c>
+      <c r="I80">
+        <v>6.032</v>
+      </c>
+      <c r="J80">
+        <v>6.4959999999999996</v>
+      </c>
+      <c r="K80">
+        <v>6.9599999999999991</v>
+      </c>
+      <c r="L80">
+        <v>7.2151999999999994</v>
+      </c>
+      <c r="M80">
+        <v>7.2847999999999997</v>
+      </c>
+      <c r="N80">
+        <v>7.3543999999999992</v>
+      </c>
+      <c r="O80">
+        <v>7.4007999999999994</v>
+      </c>
+      <c r="P80">
+        <v>7.4471999999999996</v>
+      </c>
+      <c r="Q80">
+        <v>7.4935999999999998</v>
+      </c>
+      <c r="R80">
+        <v>7.4935999999999998</v>
+      </c>
+      <c r="S80">
+        <v>7.5399999999999991</v>
+      </c>
+      <c r="T80">
+        <v>7.4935999999999998</v>
+      </c>
+      <c r="U80">
+        <v>7.4935999999999998</v>
+      </c>
+      <c r="V80">
+        <v>7.6095999999999986</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81">
+        <v>1.7631999999999999</v>
+      </c>
+      <c r="C81">
+        <v>2.2735999999999996</v>
+      </c>
+      <c r="D81">
+        <v>2.9</v>
+      </c>
+      <c r="E81">
+        <v>3.5728</v>
+      </c>
+      <c r="F81">
+        <v>4.1760000000000002</v>
+      </c>
+      <c r="G81">
+        <v>4.8719999999999999</v>
+      </c>
+      <c r="H81">
+        <v>5.5679999999999996</v>
+      </c>
+      <c r="I81">
+        <v>6.5655999999999999</v>
+      </c>
+      <c r="J81">
+        <v>7.1456</v>
+      </c>
+      <c r="K81">
+        <v>7.6559999999999988</v>
+      </c>
+      <c r="L81">
+        <v>7.7719999999999994</v>
+      </c>
+      <c r="M81">
+        <v>8.073599999999999</v>
+      </c>
+      <c r="N81">
+        <v>8.3056000000000001</v>
+      </c>
+      <c r="O81">
+        <v>8.444799999999999</v>
+      </c>
+      <c r="P81">
+        <v>8.3520000000000003</v>
+      </c>
+      <c r="Q81">
+        <v>8.3520000000000003</v>
+      </c>
+      <c r="R81">
+        <v>8.3520000000000003</v>
+      </c>
+      <c r="S81">
+        <v>8.3520000000000003</v>
+      </c>
+      <c r="T81">
+        <v>8.3520000000000003</v>
+      </c>
+      <c r="U81">
+        <v>8.3520000000000003</v>
+      </c>
+      <c r="V81">
+        <v>8.3287999999999993</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>9</v>
+      </c>
+      <c r="B82">
+        <v>1.7631999999999999</v>
+      </c>
+      <c r="C82">
+        <v>2.2735999999999996</v>
+      </c>
+      <c r="D82">
+        <v>2.9</v>
+      </c>
+      <c r="E82">
+        <v>3.5728</v>
+      </c>
+      <c r="F82">
+        <v>4.1760000000000002</v>
+      </c>
+      <c r="G82">
+        <v>4.8719999999999999</v>
+      </c>
+      <c r="H82">
+        <v>5.5679999999999996</v>
+      </c>
+      <c r="I82">
+        <v>6.5655999999999999</v>
+      </c>
+      <c r="J82">
+        <v>7.1456</v>
+      </c>
+      <c r="K82">
+        <v>7.6559999999999988</v>
+      </c>
+      <c r="L82">
+        <v>8.0039999999999996</v>
+      </c>
+      <c r="M82">
+        <v>8.3056000000000001</v>
+      </c>
+      <c r="N82">
+        <v>8.5375999999999994</v>
+      </c>
+      <c r="O82">
+        <v>8.6768000000000001</v>
+      </c>
+      <c r="P82">
+        <v>8.7695999999999987</v>
+      </c>
+      <c r="Q82">
+        <v>8.7927999999999997</v>
+      </c>
+      <c r="R82">
+        <v>8.7927999999999997</v>
+      </c>
+      <c r="S82">
+        <v>8.8159999999999989</v>
+      </c>
+      <c r="T82">
+        <v>8.8159999999999989</v>
+      </c>
+      <c r="U82">
+        <v>8.8159999999999989</v>
+      </c>
+      <c r="V82">
+        <v>8.7927999999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83">
+        <v>1.7631999999999999</v>
+      </c>
+      <c r="C83">
+        <v>2.2735999999999996</v>
+      </c>
+      <c r="D83">
+        <v>2.9</v>
+      </c>
+      <c r="E83">
+        <v>3.5728</v>
+      </c>
+      <c r="F83">
+        <v>4.1760000000000002</v>
+      </c>
+      <c r="G83">
+        <v>4.8719999999999999</v>
+      </c>
+      <c r="H83">
+        <v>5.3823999999999996</v>
+      </c>
+      <c r="I83">
+        <v>6.1711999999999998</v>
+      </c>
+      <c r="J83">
+        <v>6.7047999999999996</v>
+      </c>
+      <c r="K83">
+        <v>7.1687999999999992</v>
+      </c>
+      <c r="L83">
+        <v>7.6559999999999988</v>
+      </c>
+      <c r="M83">
+        <v>8.0503999999999998</v>
+      </c>
+      <c r="N83">
+        <v>8.3520000000000003</v>
+      </c>
+      <c r="O83">
+        <v>8.4911999999999992</v>
+      </c>
+      <c r="P83">
+        <v>8.6303999999999998</v>
+      </c>
+      <c r="Q83">
+        <v>8.7927999999999997</v>
+      </c>
+      <c r="R83">
+        <v>8.7927999999999997</v>
+      </c>
+      <c r="S83">
+        <v>8.8159999999999989</v>
+      </c>
+      <c r="T83">
+        <v>8.8159999999999989</v>
+      </c>
+      <c r="U83">
+        <v>8.8159999999999989</v>
+      </c>
+      <c r="V83">
+        <v>8.7927999999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84">
+        <v>1.7631999999999999</v>
+      </c>
+      <c r="C84">
+        <v>2.2735999999999996</v>
+      </c>
+      <c r="D84">
+        <v>2.7143999999999995</v>
+      </c>
+      <c r="E84">
+        <v>3.2943999999999996</v>
+      </c>
+      <c r="F84">
+        <v>3.7815999999999996</v>
+      </c>
+      <c r="G84">
+        <v>4.1295999999999999</v>
+      </c>
+      <c r="H84">
+        <v>4.4311999999999996</v>
+      </c>
+      <c r="I84">
+        <v>5.0111999999999997</v>
+      </c>
+      <c r="J84">
+        <v>5.428799999999999</v>
+      </c>
+      <c r="K84">
+        <v>6.0784000000000002</v>
+      </c>
+      <c r="L84">
+        <v>6.6120000000000001</v>
+      </c>
+      <c r="M84">
+        <v>7.2151999999999994</v>
+      </c>
+      <c r="N84">
+        <v>7.702399999999999</v>
+      </c>
+      <c r="O84">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="P84">
+        <v>8.444799999999999</v>
+      </c>
+      <c r="Q84">
+        <v>8.9087999999999994</v>
+      </c>
+      <c r="R84">
+        <v>9.3031999999999986</v>
+      </c>
+      <c r="S84">
+        <v>9.6047999999999991</v>
+      </c>
+      <c r="T84">
+        <v>9.7208000000000006</v>
+      </c>
+      <c r="U84">
+        <v>9.813600000000001</v>
+      </c>
+      <c r="V84">
+        <v>9.8368000000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85">
+        <v>1.7631999999999999</v>
+      </c>
+      <c r="C85">
+        <v>2.2735999999999996</v>
+      </c>
+      <c r="D85">
+        <v>2.7143999999999995</v>
+      </c>
+      <c r="E85">
+        <v>3.2943999999999996</v>
+      </c>
+      <c r="F85">
+        <v>3.6191999999999998</v>
+      </c>
+      <c r="G85">
+        <v>4.0135999999999994</v>
+      </c>
+      <c r="H85">
+        <v>4.3847999999999994</v>
+      </c>
+      <c r="I85">
+        <v>4.7559999999999993</v>
+      </c>
+      <c r="J85">
+        <v>5.0807999999999991</v>
+      </c>
+      <c r="K85">
+        <v>5.3823999999999996</v>
+      </c>
+      <c r="L85">
+        <v>5.6607999999999992</v>
+      </c>
+      <c r="M85">
+        <v>5.9855999999999998</v>
+      </c>
+      <c r="N85">
+        <v>6.2176</v>
+      </c>
+      <c r="O85">
+        <v>6.5423999999999989</v>
+      </c>
+      <c r="P85">
+        <v>7.0527999999999995</v>
+      </c>
+      <c r="Q85">
+        <v>7.4471999999999996</v>
+      </c>
+      <c r="R85">
+        <v>7.6791999999999998</v>
+      </c>
+      <c r="S85">
+        <v>7.8647999999999998</v>
+      </c>
+      <c r="T85">
+        <v>7.9807999999999995</v>
+      </c>
+      <c r="U85">
+        <v>7.9343999999999992</v>
+      </c>
+      <c r="V85">
+        <v>7.9807999999999995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86">
+        <v>1.7631999999999999</v>
+      </c>
+      <c r="C86">
+        <v>2.2735999999999996</v>
+      </c>
+      <c r="D86">
+        <v>2.7143999999999995</v>
+      </c>
+      <c r="E86">
+        <v>3.1320000000000001</v>
+      </c>
+      <c r="F86">
+        <v>3.5495999999999999</v>
+      </c>
+      <c r="G86">
+        <v>3.8279999999999994</v>
+      </c>
+      <c r="H86">
+        <v>3.9671999999999996</v>
+      </c>
+      <c r="I86">
+        <v>4.1528</v>
+      </c>
+      <c r="J86">
+        <v>4.2687999999999997</v>
+      </c>
+      <c r="K86">
+        <v>4.4079999999999995</v>
+      </c>
+      <c r="L86">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="M86">
+        <v>4.9648000000000003</v>
+      </c>
+      <c r="N86">
+        <v>5.243199999999999</v>
+      </c>
+      <c r="O86">
+        <v>5.6375999999999999</v>
+      </c>
+      <c r="P86">
+        <v>6.0784000000000002</v>
+      </c>
+      <c r="Q86">
+        <v>6.5191999999999997</v>
+      </c>
+      <c r="R86">
+        <v>6.8671999999999995</v>
+      </c>
+      <c r="S86">
+        <v>7.0527999999999995</v>
+      </c>
+      <c r="T86">
+        <v>7.1456</v>
+      </c>
+      <c r="U86">
+        <v>7.2615999999999996</v>
+      </c>
+      <c r="V86">
+        <v>7.3079999999999989</v>
       </c>
     </row>
   </sheetData>
